--- a/src/main/resources/123-madao_service/service-user_attribute.xlsx
+++ b/src/main/resources/123-madao_service/service-user_attribute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="269">
   <si>
     <t>类名</t>
   </si>
@@ -765,7 +765,10 @@
     <t>org.springframework.security.core.Authentication</t>
   </si>
   <si>
-    <t>updateByPrimaryKey(org.springframework.security.core.Authentication)</t>
+    <t>updateByPrimaryKey(com.madao.model.dto.user.UserDto,org.springframework.security.core.Authentication)</t>
+  </si>
+  <si>
+    <t>com.madao.model.dto.user.UserDto,org.springframework.security.core.Authentication</t>
   </si>
   <si>
     <t>findAdminInfo()</t>
@@ -802,6 +805,12 @@
   </si>
   <si>
     <t>insertUser(com.madao.model.dto.user.UserDto)</t>
+  </si>
+  <si>
+    <t>findByCondition(com.madao.model.dto.user.UserDto,org.springframework.data.domain.Pageable)</t>
+  </si>
+  <si>
+    <t>com.madao.model.dto.user.UserDto,org.springframework.data.domain.Pageable</t>
   </si>
   <si>
     <t>getUserAccount(java.lang.String)</t>
@@ -3245,7 +3254,7 @@
         <v>250</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D18" t="s">
         <v>237</v>
@@ -3259,7 +3268,7 @@
         <v>245</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -3293,7 +3302,7 @@
         <v>245</v>
       </c>
       <c r="B21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -3307,13 +3316,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D22" t="s">
         <v>237</v>
@@ -3324,13 +3333,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D23" t="s">
         <v>237</v>
@@ -3341,7 +3350,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s">
         <v>246</v>
@@ -3358,7 +3367,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
         <v>78</v>
@@ -3375,10 +3384,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C26" t="s">
         <v>249</v>
@@ -3392,10 +3401,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C27" t="s">
         <v>46</v>
@@ -3409,10 +3418,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -3426,10 +3435,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -3443,13 +3452,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>264</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>265</v>
       </c>
       <c r="D30" t="s">
         <v>237</v>
@@ -3460,7 +3469,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s">
         <v>217</v>
@@ -3477,7 +3486,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s">
         <v>218</v>
@@ -3494,10 +3503,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
@@ -3511,10 +3520,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
         <v>56</v>
@@ -3528,10 +3537,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B35" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C35" t="s">
         <v>46</v>
